--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fleejy/repos/ckme136-capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{946AAAFC-A6B7-B74D-9FDB-F960D410B70D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0CEB73-BF29-DD47-8877-D105A719AC47}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14740" xr2:uid="{71C1B1F0-17D8-D642-9954-EBE639D213A3}"/>
   </bookViews>
@@ -18,29 +18,9 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$7</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$A$2:$A$7</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$2:$B$7</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$C$2:$C$7</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$A$2:$A$7</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$B$2:$B$7</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$C$2:$C$7</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$7</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$A$2:$A$7</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$B$2:$B$7</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$C$2:$C$7</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$1</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$2:$C$7</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$2:$A$7</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$2:$B$7</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$C$2:$C$7</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -131,37 +111,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -182,7 +132,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -194,20 +144,368 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-4434-B642-9B9C-530A69B3C583}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>106</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.80900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.877</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89100000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E2B4-EF40-BA99-D5F9287B5DA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>106</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-4434-B642-9B9C-530A69B3C583}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="825181360"/>
+        <c:axId val="825118880"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-4434-B642-9B9C-530A69B3C583}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -222,10 +520,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -248,14 +543,13 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
+                        <a:schemeClr val="tx2">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -270,179 +564,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>29</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>73</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.77400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.77100000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.78900000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.80500000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.79600000000000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E2B4-EF40-BA99-D5F9287B5DA7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Accuracy</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>73</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -454,22 +591,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.78700000000000003</c:v>
+                  <c:v>0.8216</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.78600000000000003</c:v>
+                  <c:v>0.82640000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0%">
-                  <c:v>0.79</c:v>
+                  <c:v>0.83919999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.79200000000000004</c:v>
+                  <c:v>0.85940000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.78900000000000003</c:v>
+                  <c:v>0.85929999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.79</c:v>
+                  <c:v>0.86209999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -482,22 +619,21 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="b"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="825181360"/>
-        <c:axId val="825118880"/>
+        <c:axId val="248800591"/>
+        <c:axId val="248797583"/>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="825181360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="80"/>
+          <c:max val="110"/>
           <c:min val="20"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -505,31 +641,74 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tree Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln>
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -539,11 +718,11 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -556,42 +735,50 @@
         <c:crossAx val="825118880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+        <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="825118880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:delete val="1"/>
+        <c:axPos val="r"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="825181360"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="248797583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.92"/>
+          <c:min val="0.79"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -601,12 +788,7 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -615,8 +797,21 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="825181360"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="248800591"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="248800591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="248797583"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -627,6 +822,48 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.66732945146562561"/>
+          <c:y val="0.60481196663072656"/>
+          <c:w val="0.11714065723334399"/>
+          <c:h val="0.14560433401069237"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -644,7 +881,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -712,35 +949,29 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -753,7 +984,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -761,7 +992,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -769,17 +1000,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -788,9 +1016,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -813,35 +1040,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -853,18 +1080,19 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
@@ -873,10 +1101,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -892,21 +1120,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -916,23 +1139,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -941,17 +1163,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -960,14 +1182,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -979,26 +1200,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1012,17 +1227,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1031,17 +1245,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1050,17 +1264,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1069,27 +1282,24 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1097,11 +1307,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1109,17 +1327,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -1128,12 +1346,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1142,14 +1357,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1158,10 +1372,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -1170,20 +1381,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1192,20 +1402,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1215,14 +1421,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1232,15 +1432,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>48187</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1568,7 +1768,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="M20" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1586,68 +1786,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1">
-        <v>0.77400000000000002</v>
+        <v>0.80900000000000005</v>
       </c>
       <c r="C2" s="1">
-        <v>0.78700000000000003</v>
+        <v>0.8216</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1">
-        <v>0.77100000000000002</v>
+        <v>0.83199999999999996</v>
       </c>
       <c r="C3" s="1">
-        <v>0.78600000000000003</v>
+        <v>0.82640000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1">
-        <v>0.78900000000000003</v>
+        <v>0.877</v>
       </c>
       <c r="C4" s="2">
-        <v>0.79</v>
+        <v>0.83919999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1">
-        <v>0.80500000000000005</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="C5" s="1">
-        <v>0.79200000000000004</v>
+        <v>0.85940000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B6" s="1">
-        <v>0.79600000000000004</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>0.78900000000000003</v>
+        <v>0.85929999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="B7" s="1">
-        <v>0.8</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>0.79</v>
+        <v>0.86209999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fleejy/repos/ckme136-capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{B08DFA62-641F-5345-8CF9-D88987169E13}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62B80DB-6D70-D447-A9FF-6563E73AFF20}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14760" activeTab="1" xr2:uid="{45789D23-DCE5-6845-B64C-29C6756ABC35}"/>
   </bookViews>
@@ -16,14 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1:$C$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$2:$C$2</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$B$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$B$2:$B$7</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">Sheet2!$B$1</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">Sheet2!$B$2:$B$7</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>LHQ</t>
   </si>
@@ -193,6 +185,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-53D2-7043-8647-7E66E13733A3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -857,14 +854,209 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$2:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1594</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1508</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1364</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1270</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1190</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1148</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-663A-BA45-B9B2-0FB6C5444317}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1303860064"/>
+        <c:axId val="1303458112"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1303860064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Clusters</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -876,14 +1068,66 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" b="1"/>
-              <a:t>Within Cluster Sum of Squared Errors</a:t>
-            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
+        </c:txPr>
+        <c:crossAx val="1303458112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1303458112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1900"/>
+          <c:min val="1100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1303860064"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="100"/>
+        <c:minorUnit val="10"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -891,28 +1135,52 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1015,6 +1283,33 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>Sheet2!$B$2:$B$7</c:f>
@@ -1045,7 +1340,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-663A-BA45-B9B2-0FB6C5444317}"/>
+              <c16:uniqueId val="{00000000-8B0A-1B4D-953D-C87FD308F0AE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1065,16 +1360,106 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8"/>
-          <c:min val="0"/>
+          <c:min val="1"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Clusters</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="1303458112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1303458112"/>
@@ -1123,7 +1508,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1303860064"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="400"/>
       </c:valAx>
@@ -1285,6 +1670,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2292,6 +2717,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2890,16 +3831,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2919,6 +3860,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B56CBE43-C6F5-034F-8C37-83BF7CEF097C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3292,68 +4271,110 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F4ECC04-CCC5-4046-AAA2-1336A9326475}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2">
         <v>3537.72</v>
       </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1594</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3">
         <v>2919.48</v>
       </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>1508</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4">
         <v>2871.71</v>
       </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>1364</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5">
         <v>2762.59</v>
       </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>1270</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6">
         <v>2632.37</v>
       </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>1190</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7">
         <v>2365.77</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>1148</v>
       </c>
     </row>
   </sheetData>
